--- a/Lab2/2.xlsx
+++ b/Lab2/2.xlsx
@@ -151,111 +151,113 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Коммивояжер</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17676401457280527"/>
-          <c:y val="0.17885476572164538"/>
-          <c:w val="0.78605488731086526"/>
-          <c:h val="0.70927894315975248"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Зависимость времени от количества предметов</c:v>
+            <c:strRef>
+              <c:f>Лист1!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1534527559055118"/>
+                  <c:y val="-3.6057524059492564E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$5:$C$19</c:f>
+              <c:f>Лист1!$C$5:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -282,13 +284,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$5:$D$19</c:f>
+              <c:f>Лист1!$D$5:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -315,15 +317,16 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1E3-40A9-8527-A345C0EDBAA5}"/>
+              <c16:uniqueId val="{00000000-B4C6-4EF9-A322-9C3A3255A5FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -331,17 +334,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="198524288"/>
-        <c:axId val="198603904"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="198524288"/>
+        <c:axId val="452371352"/>
+        <c:axId val="452373320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="452371352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -363,7 +379,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="be-BY"/>
-                  <a:t>Количество городов</a:t>
+                  <a:t>количество городов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -407,8 +423,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -435,15 +451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198603904"/>
+        <c:crossAx val="452373320"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="198603904"/>
+        <c:axId val="452373320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,19 +496,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Время</a:t>
+                  <a:rPr lang="be-BY"/>
+                  <a:t>время выполнения</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> вычислений</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -535,8 +538,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -560,9 +569,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198524288"/>
+        <c:crossAx val="452371352"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -610,13 +619,47 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -643,8 +686,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -724,11 +767,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -739,11 +777,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -755,7 +788,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -775,9 +808,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,10 +820,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -833,22 +863,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -953,8 +984,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1086,19 +1117,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1112,6 +1144,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1136,19 +1179,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>81914</xdr:rowOff>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1456,7 +1499,7 @@
   <dimension ref="C4:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
